--- a/results/mp/logistic/corona/confidence/84/desired-masking-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/desired-masking-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="185">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,538 +40,535 @@
     <t>name</t>
   </si>
   <si>
-    <t>warned</t>
+    <t>killed</t>
+  </si>
+  <si>
+    <t>death</t>
   </si>
   <si>
     <t>war</t>
   </si>
   <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>arrested</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>lowest</t>
+  </si>
+  <si>
+    <t>infected</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>cancelled</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
     <t>hell</t>
   </si>
   <si>
-    <t>kill</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>death</t>
-  </si>
-  <si>
-    <t>arrested</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>debt</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>falling</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>stress</t>
-  </si>
-  <si>
-    <t>infected</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>lowest</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
-    <t>cancelled</t>
-  </si>
-  <si>
-    <t>ridiculous</t>
+    <t>beginning</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>saudi</t>
+  </si>
+  <si>
+    <t>ref</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>empty</t>
   </si>
   <si>
     <t>lower</t>
   </si>
   <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>fear</t>
-  </si>
-  <si>
-    <t>pressure</t>
-  </si>
-  <si>
-    <t>anxiety</t>
-  </si>
-  <si>
     <t>affected</t>
   </si>
   <si>
-    <t>saudi</t>
-  </si>
-  <si>
-    <t>struggling</t>
+    <t>stop</t>
   </si>
   <si>
     <t>risk</t>
   </si>
   <si>
-    <t>cut</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>vulnerable</t>
   </si>
   <si>
-    <t>empty</t>
+    <t>shortages</t>
+  </si>
+  <si>
+    <t>isolation</t>
   </si>
   <si>
     <t>demand</t>
   </si>
   <si>
-    <t>isolation</t>
-  </si>
-  <si>
     <t>fight</t>
   </si>
   <si>
-    <t>w</t>
-  </si>
-  <si>
     <t>oil</t>
   </si>
   <si>
+    <t>because</t>
+  </si>
+  <si>
+    <t>due</t>
+  </si>
+  <si>
     <t>buying</t>
   </si>
   <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>or</t>
   </si>
   <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>with</t>
+  </si>
+  <si>
     <t>prices</t>
   </si>
   <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>with</t>
-  </si>
-  <si>
-    <t>from</t>
+    <t>19</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>that</t>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>of</t>
   </si>
   <si>
     <t>:</t>
   </si>
   <si>
+    <t>at</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>create</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>god</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>super</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>keep</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>employees</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>need</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>your</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>our</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>we</t>
+  </si>
+  <si>
+    <t>so</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>as</t>
+  </si>
+  <si>
     <t>are</t>
   </si>
   <si>
-    <t>of</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>on</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>is</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>the</t>
-  </si>
-  <si>
-    <t>to</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>in</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>god</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>toronto</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>kind</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>team</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>game</t>
-  </si>
-  <si>
-    <t>huge</t>
-  </si>
-  <si>
-    <t>easter</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>super</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>article</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>amazon</t>
-  </si>
-  <si>
-    <t>learn</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>keep</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>need</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>our</t>
-  </si>
-  <si>
-    <t>your</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>we</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>all</t>
-  </si>
-  <si>
-    <t>?</t>
+    <t>store</t>
+  </si>
+  <si>
+    <t>grocery</t>
   </si>
   <si>
     <t>it</t>
   </si>
   <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>for</t>
-  </si>
-  <si>
-    <t>i</t>
-  </si>
-  <si>
-    <t>at</t>
-  </si>
-  <si>
-    <t>!</t>
-  </si>
-  <si>
-    <t>store</t>
+    <t>this</t>
+  </si>
+  <si>
+    <t>'</t>
   </si>
 </sst>
 </file>
@@ -929,7 +926,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q115"/>
+  <dimension ref="A1:Q113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -937,10 +934,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1019,16 +1016,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="L3">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M3">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -1040,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1048,13 +1045,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9473684210526315</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C4">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1066,19 +1063,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K4">
-        <v>0.9782608695652174</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L4">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="M4">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -1090,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1098,13 +1095,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9411764705882353</v>
+        <v>0.9210526315789473</v>
       </c>
       <c r="C5">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D5">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1116,19 +1113,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K5">
-        <v>0.9583333333333334</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L5">
-        <v>115</v>
+        <v>17</v>
       </c>
       <c r="M5">
-        <v>115</v>
+        <v>17</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1140,7 +1137,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1148,13 +1145,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9130434782608695</v>
+        <v>0.8918918918918919</v>
       </c>
       <c r="C6">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1166,19 +1163,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K6">
-        <v>0.9491525423728814</v>
+        <v>0.9416666666666667</v>
       </c>
       <c r="L6">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="M6">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1190,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1198,13 +1195,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8947368421052632</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="C7">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1216,19 +1213,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K7">
-        <v>0.9166666666666666</v>
+        <v>0.9375</v>
       </c>
       <c r="L7">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="M7">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1240,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1248,13 +1245,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8918918918918919</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C8">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D8">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1266,19 +1263,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K8">
-        <v>0.9090909090909091</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L8">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="M8">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1290,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1298,13 +1295,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8888888888888888</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="C9">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D9">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1319,16 +1316,16 @@
         <v>4</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K9">
-        <v>0.8955613577023499</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L9">
-        <v>343</v>
+        <v>33</v>
       </c>
       <c r="M9">
-        <v>343</v>
+        <v>33</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1340,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>40</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1348,13 +1345,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8666666666666667</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="C10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1366,19 +1363,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K10">
-        <v>0.8947368421052632</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L10">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="M10">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1390,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1398,13 +1395,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8666666666666667</v>
+        <v>0.8458904109589042</v>
       </c>
       <c r="C11">
-        <v>13</v>
+        <v>247</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>247</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1416,19 +1413,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K11">
-        <v>0.890625</v>
+        <v>0.9069767441860465</v>
       </c>
       <c r="L11">
-        <v>114</v>
+        <v>39</v>
       </c>
       <c r="M11">
-        <v>114</v>
+        <v>39</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1440,7 +1437,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1448,13 +1445,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8493150684931506</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C12">
-        <v>248</v>
+        <v>16</v>
       </c>
       <c r="D12">
-        <v>248</v>
+        <v>16</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1466,19 +1463,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K12">
-        <v>0.8888888888888888</v>
+        <v>0.8981723237597912</v>
       </c>
       <c r="L12">
-        <v>16</v>
+        <v>344</v>
       </c>
       <c r="M12">
-        <v>16</v>
+        <v>344</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1490,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>2</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1519,16 +1516,16 @@
         <v>5</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K13">
-        <v>0.8867924528301887</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L13">
-        <v>94</v>
+        <v>17</v>
       </c>
       <c r="M13">
-        <v>94</v>
+        <v>17</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1540,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1548,13 +1545,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.8275862068965517</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C14">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D14">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1566,19 +1563,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K14">
-        <v>0.8839285714285714</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L14">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="M14">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1590,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1598,49 +1595,49 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.8125</v>
+        <v>0.775</v>
       </c>
       <c r="C15">
+        <v>31</v>
+      </c>
+      <c r="D15">
+        <v>31</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>9</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K15">
+        <v>0.8839285714285714</v>
+      </c>
+      <c r="L15">
+        <v>99</v>
+      </c>
+      <c r="M15">
+        <v>99</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
         <v>13</v>
-      </c>
-      <c r="D15">
-        <v>13</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>3</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="K15">
-        <v>0.8793103448275862</v>
-      </c>
-      <c r="L15">
-        <v>51</v>
-      </c>
-      <c r="M15">
-        <v>51</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1648,13 +1645,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.7948717948717948</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C16">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1666,19 +1663,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K16">
-        <v>0.875</v>
+        <v>0.8793103448275862</v>
       </c>
       <c r="L16">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="M16">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1690,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1698,13 +1695,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.7826086956521739</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C17">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D17">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1716,19 +1713,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K17">
-        <v>0.8666666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="L17">
-        <v>13</v>
+        <v>112</v>
       </c>
       <c r="M17">
-        <v>13</v>
+        <v>112</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1740,7 +1737,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1748,13 +1745,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.76</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C18">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D18">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1766,19 +1763,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K18">
-        <v>0.8636363636363636</v>
+        <v>0.8679245283018868</v>
       </c>
       <c r="L18">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="M18">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1790,7 +1787,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1798,13 +1795,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="C19">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D19">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1816,19 +1813,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K19">
-        <v>0.85625</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L19">
-        <v>137</v>
+        <v>13</v>
       </c>
       <c r="M19">
-        <v>137</v>
+        <v>13</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1840,7 +1837,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>23</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1848,13 +1845,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.7450980392156863</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="C20">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="D20">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1866,19 +1863,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K20">
-        <v>0.8536585365853658</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="L20">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="M20">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1890,7 +1887,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1898,49 +1895,49 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.7333333333333333</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C21">
+        <v>14</v>
+      </c>
+      <c r="D21">
+        <v>14</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>5</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K21">
+        <v>0.8625</v>
+      </c>
+      <c r="L21">
+        <v>138</v>
+      </c>
+      <c r="M21">
+        <v>138</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
         <v>22</v>
-      </c>
-      <c r="D21">
-        <v>22</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>8</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="K21">
-        <v>0.851063829787234</v>
-      </c>
-      <c r="L21">
-        <v>40</v>
-      </c>
-      <c r="M21">
-        <v>40</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1951,10 +1948,10 @@
         <v>0.7</v>
       </c>
       <c r="C22">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D22">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1966,19 +1963,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K22">
-        <v>0.8461538461538461</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="L22">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="M22">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1990,7 +1987,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1998,13 +1995,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.6923076923076923</v>
+        <v>0.6949152542372882</v>
       </c>
       <c r="C23">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D23">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -2016,19 +2013,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K23">
-        <v>0.8450704225352113</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L23">
-        <v>120</v>
+        <v>69</v>
       </c>
       <c r="M23">
-        <v>120</v>
+        <v>69</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -2040,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -2048,13 +2045,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.6923076923076923</v>
+        <v>0.689922480620155</v>
       </c>
       <c r="C24">
-        <v>18</v>
+        <v>356</v>
       </c>
       <c r="D24">
-        <v>18</v>
+        <v>356</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -2066,19 +2063,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>8</v>
+        <v>160</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K24">
-        <v>0.8333333333333334</v>
+        <v>0.8380281690140845</v>
       </c>
       <c r="L24">
-        <v>30</v>
+        <v>119</v>
       </c>
       <c r="M24">
-        <v>30</v>
+        <v>119</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -2090,7 +2087,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -2098,37 +2095,37 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.6896551724137931</v>
+        <v>0.6875</v>
       </c>
       <c r="C25">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="D25">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="E25">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K25">
-        <v>0.813953488372093</v>
+        <v>0.8253968253968254</v>
       </c>
       <c r="L25">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="M25">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -2140,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2148,13 +2145,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.6842105263157895</v>
+        <v>0.671957671957672</v>
       </c>
       <c r="C26">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="D26">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2166,13 +2163,13 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K26">
-        <v>0.8</v>
+        <v>0.8205128205128205</v>
       </c>
       <c r="L26">
         <v>32</v>
@@ -2190,7 +2187,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2198,13 +2195,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.6842105263157895</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C27">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D27">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2216,19 +2213,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K27">
-        <v>0.7948717948717948</v>
+        <v>0.8085106382978723</v>
       </c>
       <c r="L27">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="M27">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2240,7 +2237,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2248,38 +2245,38 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.6774193548387096</v>
+        <v>0.6486486486486487</v>
       </c>
       <c r="C28">
+        <v>24</v>
+      </c>
+      <c r="D28">
+        <v>24</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>13</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K28">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="L28">
         <v>21</v>
       </c>
-      <c r="D28">
+      <c r="M28">
         <v>21</v>
       </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>10</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="K28">
-        <v>0.7936507936507936</v>
-      </c>
-      <c r="L28">
-        <v>50</v>
-      </c>
-      <c r="M28">
-        <v>50</v>
-      </c>
       <c r="N28">
         <v>1</v>
       </c>
@@ -2290,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2298,13 +2295,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.671957671957672</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C29">
-        <v>127</v>
+        <v>33</v>
       </c>
       <c r="D29">
-        <v>127</v>
+        <v>33</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2316,19 +2313,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K29">
-        <v>0.7916666666666666</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="L29">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M29">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2340,7 +2337,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2348,13 +2345,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.6608527131782945</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C30">
-        <v>341</v>
+        <v>16</v>
       </c>
       <c r="D30">
-        <v>341</v>
+        <v>16</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2366,19 +2363,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>175</v>
+        <v>10</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K30">
-        <v>0.7916666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="L30">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M30">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2390,7 +2387,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2398,13 +2395,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.65625</v>
+        <v>0.5972222222222222</v>
       </c>
       <c r="C31">
-        <v>21</v>
+        <v>215</v>
       </c>
       <c r="D31">
-        <v>21</v>
+        <v>215</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2416,19 +2413,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>11</v>
+        <v>145</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K31">
-        <v>0.7714285714285715</v>
+        <v>0.75</v>
       </c>
       <c r="L31">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="M31">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2440,7 +2437,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2448,13 +2445,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.6521739130434783</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="C32">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D32">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2466,19 +2463,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K32">
-        <v>0.7617647058823529</v>
+        <v>0.75</v>
       </c>
       <c r="L32">
-        <v>259</v>
+        <v>21</v>
       </c>
       <c r="M32">
-        <v>259</v>
+        <v>21</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2490,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>81</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2498,13 +2495,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.6375838926174496</v>
+        <v>0.5897435897435898</v>
       </c>
       <c r="C33">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="D33">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2516,19 +2513,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K33">
-        <v>0.76</v>
+        <v>0.7441176470588236</v>
       </c>
       <c r="L33">
-        <v>38</v>
+        <v>253</v>
       </c>
       <c r="M33">
-        <v>38</v>
+        <v>253</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2540,7 +2537,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>12</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2548,13 +2545,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.6363636363636364</v>
+        <v>0.5818181818181818</v>
       </c>
       <c r="C34">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D34">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2566,19 +2563,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K34">
-        <v>0.7575757575757576</v>
+        <v>0.7254237288135593</v>
       </c>
       <c r="L34">
-        <v>25</v>
+        <v>214</v>
       </c>
       <c r="M34">
-        <v>25</v>
+        <v>214</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2590,7 +2587,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>8</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2598,13 +2595,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.6153846153846154</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="C35">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D35">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2616,19 +2613,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K35">
-        <v>0.75</v>
+        <v>0.725</v>
       </c>
       <c r="L35">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="M35">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2640,7 +2637,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2648,37 +2645,37 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.5909090909090909</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="C36">
+        <v>18</v>
+      </c>
+      <c r="D36">
+        <v>18</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36">
         <v>13</v>
       </c>
-      <c r="D36">
-        <v>13</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>9</v>
-      </c>
       <c r="J36" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K36">
-        <v>0.75</v>
+        <v>0.72</v>
       </c>
       <c r="L36">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="M36">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2690,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2698,13 +2695,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.5714285714285714</v>
+        <v>0.5771812080536913</v>
       </c>
       <c r="C37">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="D37">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2716,19 +2713,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K37">
-        <v>0.7407407407407407</v>
+        <v>0.7191011235955056</v>
       </c>
       <c r="L37">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="M37">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2740,7 +2737,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2748,13 +2745,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.5675675675675675</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="C38">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D38">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2766,19 +2763,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K38">
-        <v>0.7368421052631579</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L38">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M38">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2790,7 +2787,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2798,13 +2795,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.5636363636363636</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="C39">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D39">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2816,19 +2813,19 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K39">
-        <v>0.7272727272727273</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="L39">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="M39">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2840,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2851,10 +2848,10 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="C40">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D40">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2866,19 +2863,19 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K40">
-        <v>0.7230769230769231</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L40">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="M40">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2890,7 +2887,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2898,13 +2895,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.5555555555555556</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="C41">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D41">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2916,19 +2913,19 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K41">
-        <v>0.717687074829932</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="L41">
-        <v>211</v>
+        <v>36</v>
       </c>
       <c r="M41">
-        <v>212</v>
+        <v>36</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2937,10 +2934,10 @@
         <v>0</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>83</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2948,37 +2945,37 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.5466666666666666</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C42">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="D42">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K42">
-        <v>0.7142857142857143</v>
+        <v>0.702928870292887</v>
       </c>
       <c r="L42">
-        <v>20</v>
+        <v>168</v>
       </c>
       <c r="M42">
-        <v>20</v>
+        <v>168</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2990,7 +2987,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>8</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2998,13 +2995,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.5416666666666666</v>
+        <v>0.5066666666666667</v>
       </c>
       <c r="C43">
-        <v>195</v>
+        <v>38</v>
       </c>
       <c r="D43">
-        <v>195</v>
+        <v>38</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -3016,19 +3013,19 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>165</v>
+        <v>37</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K43">
-        <v>0.7058823529411765</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="L43">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="M43">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -3040,7 +3037,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -3048,13 +3045,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.5384615384615384</v>
+        <v>0.4909090909090909</v>
       </c>
       <c r="C44">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D44">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -3066,19 +3063,19 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K44">
-        <v>0.698744769874477</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="L44">
-        <v>167</v>
+        <v>16</v>
       </c>
       <c r="M44">
-        <v>167</v>
+        <v>16</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -3090,7 +3087,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>72</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -3098,13 +3095,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.5185185185185185</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="C45">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="D45">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -3116,19 +3113,19 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K45">
-        <v>0.6888888888888889</v>
+        <v>0.6914893617021277</v>
       </c>
       <c r="L45">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="M45">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -3140,7 +3137,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -3148,13 +3145,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.5161290322580645</v>
+        <v>0.4821428571428572</v>
       </c>
       <c r="C46">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D46">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -3166,31 +3163,31 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K46">
-        <v>0.6881720430107527</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="L46">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="M46">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="N46">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3198,13 +3195,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.5161290322580645</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="C47">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D47">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3216,19 +3213,19 @@
         <v>0</v>
       </c>
       <c r="H47">
+        <v>17</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K47">
+        <v>0.6818181818181818</v>
+      </c>
+      <c r="L47">
         <v>15</v>
       </c>
-      <c r="J47" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="K47">
-        <v>0.6853932584269663</v>
-      </c>
-      <c r="L47">
-        <v>61</v>
-      </c>
       <c r="M47">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -3240,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3248,13 +3245,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.5161290322580645</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="C48">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="D48">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -3266,19 +3263,19 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K48">
-        <v>0.6842105263157895</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L48">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M48">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -3290,7 +3287,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -3298,13 +3295,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.4333333333333333</v>
+        <v>0.3376623376623377</v>
       </c>
       <c r="C49">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D49">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -3316,19 +3313,19 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K49">
-        <v>0.6714285714285714</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L49">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="M49">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -3340,7 +3337,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -3348,13 +3345,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.4285714285714285</v>
+        <v>0.325</v>
       </c>
       <c r="C50">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D50">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3366,19 +3363,19 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K50">
-        <v>0.6666666666666666</v>
+        <v>0.6461538461538462</v>
       </c>
       <c r="L50">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M50">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -3390,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -3398,13 +3395,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.4181818181818182</v>
+        <v>0.3170731707317073</v>
       </c>
       <c r="C51">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D51">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3416,19 +3413,19 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K51">
-        <v>0.6666666666666666</v>
+        <v>0.625</v>
       </c>
       <c r="L51">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M51">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -3440,7 +3437,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -3448,13 +3445,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.3333333333333333</v>
+        <v>0.3137254901960784</v>
       </c>
       <c r="C52">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="D52">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -3466,19 +3463,19 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>168</v>
+        <v>35</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K52">
-        <v>0.6666666666666666</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L52">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M52">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -3490,7 +3487,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -3498,31 +3495,31 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.325</v>
+        <v>0.25</v>
       </c>
       <c r="C53">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="D53">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53">
-        <v>27</v>
+        <v>279</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K53">
-        <v>0.6666666666666666</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L53">
         <v>16</v>
@@ -3540,7 +3537,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -3548,13 +3545,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.3111111111111111</v>
+        <v>0.2375</v>
       </c>
       <c r="C54">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D54">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -3566,31 +3563,31 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K54">
-        <v>0.6585365853658537</v>
+        <v>0.6142857142857143</v>
       </c>
       <c r="L54">
+        <v>43</v>
+      </c>
+      <c r="M54">
+        <v>43</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q54">
         <v>27</v>
-      </c>
-      <c r="M54">
-        <v>28</v>
-      </c>
-      <c r="N54">
-        <v>0.96</v>
-      </c>
-      <c r="O54">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="P54" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q54">
-        <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -3598,13 +3595,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.2949061662198391</v>
+        <v>0.1266666666666667</v>
       </c>
       <c r="C55">
-        <v>110</v>
+        <v>38</v>
       </c>
       <c r="D55">
-        <v>110</v>
+        <v>38</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -3616,19 +3613,19 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K55">
-        <v>0.6538461538461539</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="L55">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M55">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -3640,7 +3637,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" spans="1:17">
@@ -3648,7 +3645,7 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.2941176470588235</v>
+        <v>0.09375</v>
       </c>
       <c r="C56">
         <v>15</v>
@@ -3666,19 +3663,19 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>36</v>
+        <v>145</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K56">
-        <v>0.6521739130434783</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L56">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M56">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -3690,7 +3687,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:17">
@@ -3698,37 +3695,37 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.25</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C57">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D57">
         <v>20</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="G57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57">
-        <v>60</v>
+        <v>216</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K57">
-        <v>0.65</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L57">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M57">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -3740,7 +3737,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" spans="1:17">
@@ -3748,31 +3745,31 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.2372881355932203</v>
+        <v>0.0684931506849315</v>
       </c>
       <c r="C58">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D58">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58">
-        <v>45</v>
+        <v>272</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K58">
-        <v>0.6190476190476191</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L58">
         <v>13</v>
@@ -3790,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:17">
@@ -3798,37 +3795,37 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1566666666666667</v>
+        <v>0.03959753326841935</v>
       </c>
       <c r="C59">
-        <v>47</v>
+        <v>122</v>
       </c>
       <c r="D59">
-        <v>47</v>
+        <v>148</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="F59">
-        <v>1</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="G59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59">
-        <v>253</v>
+        <v>2959</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K59">
-        <v>0.6129032258064516</v>
+        <v>0.5616438356164384</v>
       </c>
       <c r="L59">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="M59">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -3840,7 +3837,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60" spans="1:17">
@@ -3848,49 +3845,49 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.08191126279863481</v>
+        <v>0.03814713896457766</v>
       </c>
       <c r="C60">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D60">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60">
-        <v>269</v>
+        <v>353</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K60">
-        <v>0.5652173913043478</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="L60">
+        <v>15</v>
+      </c>
+      <c r="M60">
+        <v>15</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q60">
         <v>13</v>
-      </c>
-      <c r="M60">
-        <v>13</v>
-      </c>
-      <c r="N60">
-        <v>1</v>
-      </c>
-      <c r="O60">
-        <v>0</v>
-      </c>
-      <c r="P60" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q60">
-        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:17">
@@ -3898,49 +3895,49 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.05434782608695652</v>
+        <v>0.03548387096774194</v>
       </c>
       <c r="C61">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D61">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>0.76</v>
       </c>
       <c r="G61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61">
-        <v>348</v>
+        <v>598</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K61">
-        <v>0.5416666666666666</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="L61">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="M61">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="N61">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O61">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" spans="1:17">
@@ -3948,37 +3945,37 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.03373702422145329</v>
+        <v>0.03257790368271955</v>
       </c>
       <c r="C62">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="D62">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="E62">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="F62">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="G62" t="b">
         <v>1</v>
       </c>
       <c r="H62">
-        <v>1117</v>
+        <v>683</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K62">
-        <v>0.5416666666666666</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="L62">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M62">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -3990,7 +3987,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63" spans="1:17">
@@ -3998,37 +3995,37 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.02364755425979916</v>
+        <v>0.03027681660899654</v>
       </c>
       <c r="C63">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="D63">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="E63">
-        <v>0.22</v>
+        <v>0.12</v>
       </c>
       <c r="F63">
-        <v>0.78</v>
+        <v>0.88</v>
       </c>
       <c r="G63" t="b">
         <v>1</v>
       </c>
       <c r="H63">
-        <v>3014</v>
+        <v>1121</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K63">
-        <v>0.5416666666666666</v>
+        <v>0.5081967213114754</v>
       </c>
       <c r="L63">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M63">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -4040,7 +4037,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64" spans="1:17">
@@ -4048,37 +4045,37 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.02124645892351275</v>
+        <v>0.02644003777148253</v>
       </c>
       <c r="C64">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="D64">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="E64">
-        <v>0.12</v>
+        <v>0.31</v>
       </c>
       <c r="F64">
-        <v>0.88</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="G64" t="b">
         <v>1</v>
       </c>
       <c r="H64">
-        <v>691</v>
+        <v>2062</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K64">
         <v>0.5</v>
       </c>
       <c r="L64">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M64">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -4090,7 +4087,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65" spans="1:17">
@@ -4098,49 +4095,49 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.02096774193548387</v>
+        <v>0.02592592592592593</v>
       </c>
       <c r="C65">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D65">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E65">
-        <v>0.35</v>
+        <v>0.26</v>
       </c>
       <c r="F65">
-        <v>0.65</v>
+        <v>0.74</v>
       </c>
       <c r="G65" t="b">
         <v>1</v>
       </c>
       <c r="H65">
-        <v>607</v>
+        <v>526</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K65">
-        <v>0.5</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="L65">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="M65">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="N65">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O65">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q65">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="66" spans="1:17">
@@ -4148,37 +4145,37 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.01847575057736721</v>
+        <v>0.025</v>
       </c>
       <c r="C66">
         <v>16</v>
       </c>
       <c r="D66">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E66">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="F66">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="G66" t="b">
         <v>1</v>
       </c>
       <c r="H66">
-        <v>850</v>
+        <v>624</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K66">
-        <v>0.4745762711864407</v>
+        <v>0.4067796610169492</v>
       </c>
       <c r="L66">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="M66">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -4190,7 +4187,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="67" spans="1:17">
@@ -4198,37 +4195,37 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.0168</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="C67">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D67">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="E67">
-        <v>0.65</v>
+        <v>0.33</v>
       </c>
       <c r="F67">
-        <v>0.35</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G67" t="b">
         <v>1</v>
       </c>
       <c r="H67">
-        <v>1229</v>
+        <v>1104</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K67">
-        <v>0.4736842105263158</v>
+        <v>0.4035087719298245</v>
       </c>
       <c r="L67">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M67">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -4240,7 +4237,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="68" spans="1:17">
@@ -4248,49 +4245,49 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.01653944020356234</v>
+        <v>0.02090592334494774</v>
       </c>
       <c r="C68">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="D68">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="E68">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="F68">
-        <v>0.65</v>
+        <v>0.75</v>
       </c>
       <c r="G68" t="b">
         <v>1</v>
       </c>
       <c r="H68">
-        <v>2319</v>
+        <v>843</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K68">
-        <v>0.46875</v>
+        <v>0.2803738317757009</v>
       </c>
       <c r="L68">
         <v>30</v>
       </c>
       <c r="M68">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N68">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O68">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q68">
-        <v>34</v>
+        <v>77</v>
       </c>
     </row>
     <row r="69" spans="1:17">
@@ -4298,37 +4295,37 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.01643192488262911</v>
+        <v>0.01949152542372882</v>
       </c>
       <c r="C69">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D69">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="E69">
-        <v>0.27</v>
+        <v>0.29</v>
       </c>
       <c r="F69">
-        <v>0.73</v>
+        <v>0.71</v>
       </c>
       <c r="G69" t="b">
         <v>1</v>
       </c>
       <c r="H69">
-        <v>2095</v>
+        <v>2314</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K69">
-        <v>0.4487179487179487</v>
+        <v>0.2361111111111111</v>
       </c>
       <c r="L69">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="M69">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -4340,7 +4337,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>43</v>
+        <v>55</v>
       </c>
     </row>
     <row r="70" spans="1:17">
@@ -4348,37 +4345,37 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.01497797356828194</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="C70">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D70">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E70">
-        <v>0.23</v>
+        <v>0.44</v>
       </c>
       <c r="F70">
-        <v>0.77</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G70" t="b">
         <v>1</v>
       </c>
       <c r="H70">
-        <v>1118</v>
+        <v>855</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K70">
-        <v>0.4411764705882353</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="L70">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M70">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -4390,7 +4387,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>19</v>
+        <v>54</v>
       </c>
     </row>
     <row r="71" spans="1:17">
@@ -4398,37 +4395,37 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.01268591426071741</v>
+        <v>0.01522248243559719</v>
       </c>
       <c r="C71">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D71">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="E71">
-        <v>0.44</v>
+        <v>0.65</v>
       </c>
       <c r="F71">
-        <v>0.5600000000000001</v>
+        <v>0.35</v>
       </c>
       <c r="G71" t="b">
         <v>1</v>
       </c>
       <c r="H71">
-        <v>2257</v>
+        <v>841</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K71">
-        <v>0.375</v>
+        <v>0.2016129032258064</v>
       </c>
       <c r="L71">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="M71">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -4440,7 +4437,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>25</v>
+        <v>99</v>
       </c>
     </row>
     <row r="72" spans="1:17">
@@ -4448,37 +4445,37 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.01182557280118256</v>
+        <v>0.01319820881451803</v>
       </c>
       <c r="C72">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="D72">
-        <v>26</v>
+        <v>141</v>
       </c>
       <c r="E72">
-        <v>0.38</v>
+        <v>0.6</v>
       </c>
       <c r="F72">
-        <v>0.62</v>
+        <v>0.4</v>
       </c>
       <c r="G72" t="b">
         <v>1</v>
       </c>
       <c r="H72">
-        <v>1337</v>
+        <v>4187</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K72">
-        <v>0.3636363636363636</v>
+        <v>0.1368421052631579</v>
       </c>
       <c r="L72">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M72">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -4490,7 +4487,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>28</v>
+        <v>82</v>
       </c>
     </row>
     <row r="73" spans="1:17">
@@ -4498,37 +4495,37 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.01042970379641218</v>
+        <v>0.01318101933216169</v>
       </c>
       <c r="C73">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D73">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E73">
-        <v>0.66</v>
+        <v>0.52</v>
       </c>
       <c r="F73">
-        <v>0.34</v>
+        <v>0.48</v>
       </c>
       <c r="G73" t="b">
         <v>1</v>
       </c>
       <c r="H73">
-        <v>2372</v>
+        <v>2246</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K73">
-        <v>0.360655737704918</v>
+        <v>0.1297297297297297</v>
       </c>
       <c r="L73">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M73">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -4540,7 +4537,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>39</v>
+        <v>161</v>
       </c>
     </row>
     <row r="74" spans="1:17">
@@ -4548,49 +4545,49 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.01038062283737024</v>
+        <v>0.01221566975568661</v>
       </c>
       <c r="C74">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D74">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E74">
-        <v>0.73</v>
+        <v>0.71</v>
       </c>
       <c r="F74">
-        <v>0.27</v>
+        <v>0.29</v>
       </c>
       <c r="G74" t="b">
         <v>1</v>
       </c>
       <c r="H74">
-        <v>2574</v>
+        <v>2345</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K74">
-        <v>0.3207547169811321</v>
+        <v>0.125</v>
       </c>
       <c r="L74">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M74">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N74">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O74">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q74">
-        <v>36</v>
+        <v>98</v>
       </c>
     </row>
     <row r="75" spans="1:17">
@@ -4598,37 +4595,37 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.01037006913379422</v>
+        <v>0.01204081632653061</v>
       </c>
       <c r="C75">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D75">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="E75">
-        <v>0.6</v>
+        <v>0.62</v>
       </c>
       <c r="F75">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="G75" t="b">
         <v>1</v>
       </c>
       <c r="H75">
-        <v>4867</v>
+        <v>4841</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K75">
-        <v>0.26</v>
+        <v>0.1226993865030675</v>
       </c>
       <c r="L75">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M75">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -4640,7 +4637,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>37</v>
+        <v>143</v>
       </c>
     </row>
     <row r="76" spans="1:17">
@@ -4648,31 +4645,31 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.009994121105232217</v>
+        <v>0.0119937082186394</v>
       </c>
       <c r="C76">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D76">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="E76">
-        <v>0.55</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F76">
-        <v>0.45</v>
+        <v>0.4399999999999999</v>
       </c>
       <c r="G76" t="b">
         <v>1</v>
       </c>
       <c r="H76">
-        <v>5052</v>
+        <v>5025</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K76">
-        <v>0.2222222222222222</v>
+        <v>0.1118881118881119</v>
       </c>
       <c r="L76">
         <v>16</v>
@@ -4690,7 +4687,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>56</v>
+        <v>127</v>
       </c>
     </row>
     <row r="77" spans="1:17">
@@ -4698,49 +4695,49 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.008878504672897197</v>
+        <v>0.01187824795842613</v>
       </c>
       <c r="C77">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="D77">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="E77">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="F77">
-        <v>0.4399999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="G77" t="b">
         <v>1</v>
       </c>
       <c r="H77">
-        <v>4242</v>
+        <v>1331</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K77">
-        <v>0.2016129032258064</v>
+        <v>0.1045751633986928</v>
       </c>
       <c r="L77">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="M77">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="N77">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O77">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q77">
-        <v>99</v>
+        <v>274</v>
       </c>
     </row>
     <row r="78" spans="1:17">
@@ -4748,49 +4745,49 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.00732484076433121</v>
+        <v>0.01159644375724778</v>
       </c>
       <c r="C78">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D78">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="E78">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
       <c r="F78">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="G78" t="b">
         <v>1</v>
       </c>
       <c r="H78">
-        <v>3117</v>
+        <v>2557</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K78">
-        <v>0.1981132075471698</v>
+        <v>0.08304498269896193</v>
       </c>
       <c r="L78">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M78">
         <v>24</v>
       </c>
       <c r="N78">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O78">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q78">
-        <v>85</v>
+        <v>265</v>
       </c>
     </row>
     <row r="79" spans="1:17">
@@ -4798,491 +4795,539 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.006548175865294668</v>
+        <v>0.009627727856225931</v>
       </c>
       <c r="C79">
+        <v>15</v>
+      </c>
+      <c r="D79">
+        <v>51</v>
+      </c>
+      <c r="E79">
+        <v>0.71</v>
+      </c>
+      <c r="F79">
+        <v>0.29</v>
+      </c>
+      <c r="G79" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79">
+        <v>1543</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="K79">
+        <v>0.07949790794979079</v>
+      </c>
+      <c r="L79">
+        <v>95</v>
+      </c>
+      <c r="M79">
+        <v>100</v>
+      </c>
+      <c r="N79">
+        <v>0.95</v>
+      </c>
+      <c r="O79">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P79" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q79">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17">
+      <c r="A80" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B80">
+        <v>0.009402914903620122</v>
+      </c>
+      <c r="C80">
+        <v>20</v>
+      </c>
+      <c r="D80">
+        <v>51</v>
+      </c>
+      <c r="E80">
+        <v>0.61</v>
+      </c>
+      <c r="F80">
+        <v>0.39</v>
+      </c>
+      <c r="G80" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80">
+        <v>2107</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="K80">
+        <v>0.07736389684813753</v>
+      </c>
+      <c r="L80">
+        <v>27</v>
+      </c>
+      <c r="M80">
+        <v>27</v>
+      </c>
+      <c r="N80">
+        <v>1</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+      <c r="P80" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17">
+      <c r="A81" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B81">
+        <v>0.009009009009009009</v>
+      </c>
+      <c r="C81">
+        <v>28</v>
+      </c>
+      <c r="D81">
+        <v>121</v>
+      </c>
+      <c r="E81">
+        <v>0.77</v>
+      </c>
+      <c r="F81">
+        <v>0.23</v>
+      </c>
+      <c r="G81" t="b">
+        <v>1</v>
+      </c>
+      <c r="H81">
+        <v>3080</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="K81">
+        <v>0.0755813953488372</v>
+      </c>
+      <c r="L81">
+        <v>13</v>
+      </c>
+      <c r="M81">
+        <v>13</v>
+      </c>
+      <c r="N81">
+        <v>1</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+      <c r="P81" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17">
+      <c r="J82" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="K82">
+        <v>0.07366482504604052</v>
+      </c>
+      <c r="L82">
+        <v>40</v>
+      </c>
+      <c r="M82">
+        <v>44</v>
+      </c>
+      <c r="N82">
+        <v>0.91</v>
+      </c>
+      <c r="O82">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P82" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q82">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17">
+      <c r="J83" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="K83">
+        <v>0.06763285024154589</v>
+      </c>
+      <c r="L83">
+        <v>28</v>
+      </c>
+      <c r="M83">
+        <v>30</v>
+      </c>
+      <c r="N83">
+        <v>0.93</v>
+      </c>
+      <c r="O83">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P83" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q83">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17">
+      <c r="J84" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="K84">
+        <v>0.04830917874396135</v>
+      </c>
+      <c r="L84">
+        <v>20</v>
+      </c>
+      <c r="M84">
+        <v>24</v>
+      </c>
+      <c r="N84">
+        <v>0.83</v>
+      </c>
+      <c r="O84">
+        <v>0.17</v>
+      </c>
+      <c r="P84" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q84">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17">
+      <c r="J85" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="K85">
+        <v>0.04347826086956522</v>
+      </c>
+      <c r="L85">
+        <v>28</v>
+      </c>
+      <c r="M85">
+        <v>34</v>
+      </c>
+      <c r="N85">
+        <v>0.82</v>
+      </c>
+      <c r="O85">
+        <v>0.18</v>
+      </c>
+      <c r="P85" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q85">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17">
+      <c r="J86" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="K86">
+        <v>0.03814262023217247</v>
+      </c>
+      <c r="L86">
+        <v>23</v>
+      </c>
+      <c r="M86">
+        <v>25</v>
+      </c>
+      <c r="N86">
+        <v>0.92</v>
+      </c>
+      <c r="O86">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P86" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q86">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17">
+      <c r="J87" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="K87">
+        <v>0.03684210526315789</v>
+      </c>
+      <c r="L87">
         <v>14</v>
       </c>
-      <c r="D79">
-        <v>34</v>
-      </c>
-      <c r="E79">
-        <v>0.59</v>
-      </c>
-      <c r="F79">
-        <v>0.41</v>
-      </c>
-      <c r="G79" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79">
-        <v>2124</v>
-      </c>
-      <c r="J79" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="K79">
-        <v>0.1857142857142857</v>
-      </c>
-      <c r="L79">
-        <v>13</v>
-      </c>
-      <c r="M79">
-        <v>13</v>
-      </c>
-      <c r="N79">
-        <v>1</v>
-      </c>
-      <c r="O79">
-        <v>0</v>
-      </c>
-      <c r="P79" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q79">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17">
-      <c r="J80" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="K80">
-        <v>0.1789473684210526</v>
-      </c>
-      <c r="L80">
+      <c r="M87">
         <v>17</v>
       </c>
-      <c r="M80">
+      <c r="N87">
+        <v>0.82</v>
+      </c>
+      <c r="O87">
+        <v>0.18</v>
+      </c>
+      <c r="P87" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q87">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17">
+      <c r="J88" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="K88">
+        <v>0.0336734693877551</v>
+      </c>
+      <c r="L88">
+        <v>33</v>
+      </c>
+      <c r="M88">
+        <v>42</v>
+      </c>
+      <c r="N88">
+        <v>0.79</v>
+      </c>
+      <c r="O88">
+        <v>0.21</v>
+      </c>
+      <c r="P88" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q88">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17">
+      <c r="J89" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K89">
+        <v>0.03253878168747635</v>
+      </c>
+      <c r="L89">
+        <v>86</v>
+      </c>
+      <c r="M89">
+        <v>116</v>
+      </c>
+      <c r="N89">
+        <v>0.74</v>
+      </c>
+      <c r="O89">
+        <v>0.26</v>
+      </c>
+      <c r="P89" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q89">
+        <v>2557</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17">
+      <c r="J90" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="K90">
+        <v>0.03153988868274583</v>
+      </c>
+      <c r="L90">
         <v>17</v>
       </c>
-      <c r="N80">
-        <v>1</v>
-      </c>
-      <c r="O80">
-        <v>0</v>
-      </c>
-      <c r="P80" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q80">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="81" spans="10:17">
-      <c r="J81" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="K81">
-        <v>0.1358024691358025</v>
-      </c>
-      <c r="L81">
+      <c r="M90">
         <v>22</v>
       </c>
-      <c r="M81">
-        <v>23</v>
-      </c>
-      <c r="N81">
-        <v>0.96</v>
-      </c>
-      <c r="O81">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="P81" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q81">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="82" spans="10:17">
-      <c r="J82" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="K82">
-        <v>0.1189189189189189</v>
-      </c>
-      <c r="L82">
-        <v>22</v>
-      </c>
-      <c r="M82">
-        <v>22</v>
-      </c>
-      <c r="N82">
-        <v>1</v>
-      </c>
-      <c r="O82">
-        <v>0</v>
-      </c>
-      <c r="P82" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q82">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="83" spans="10:17">
-      <c r="J83" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="K83">
-        <v>0.09090909090909091</v>
-      </c>
-      <c r="L83">
-        <v>13</v>
-      </c>
-      <c r="M83">
-        <v>13</v>
-      </c>
-      <c r="N83">
-        <v>1</v>
-      </c>
-      <c r="O83">
-        <v>0</v>
-      </c>
-      <c r="P83" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q83">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="84" spans="10:17">
-      <c r="J84" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="K84">
-        <v>0.08139534883720931</v>
-      </c>
-      <c r="L84">
-        <v>14</v>
-      </c>
-      <c r="M84">
-        <v>14</v>
-      </c>
-      <c r="N84">
-        <v>1</v>
-      </c>
-      <c r="O84">
-        <v>0</v>
-      </c>
-      <c r="P84" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q84">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="85" spans="10:17">
-      <c r="J85" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="K85">
-        <v>0.08116883116883117</v>
-      </c>
-      <c r="L85">
-        <v>25</v>
-      </c>
-      <c r="M85">
-        <v>25</v>
-      </c>
-      <c r="N85">
-        <v>1</v>
-      </c>
-      <c r="O85">
-        <v>0</v>
-      </c>
-      <c r="P85" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q85">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="86" spans="10:17">
-      <c r="J86" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="K86">
-        <v>0.06574394463667819</v>
-      </c>
-      <c r="L86">
-        <v>19</v>
-      </c>
-      <c r="M86">
-        <v>19</v>
-      </c>
-      <c r="N86">
-        <v>1</v>
-      </c>
-      <c r="O86">
-        <v>0</v>
-      </c>
-      <c r="P86" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q86">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="87" spans="10:17">
-      <c r="J87" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="K87">
-        <v>0.06270903010033445</v>
-      </c>
-      <c r="L87">
-        <v>75</v>
-      </c>
-      <c r="M87">
+      <c r="N90">
+        <v>0.77</v>
+      </c>
+      <c r="O90">
+        <v>0.23</v>
+      </c>
+      <c r="P90" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q90">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17">
+      <c r="J91" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="N87">
-        <v>0.95</v>
-      </c>
-      <c r="O87">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="P87" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q87">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="88" spans="10:17">
-      <c r="J88" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="K88">
-        <v>0.06051873198847262</v>
-      </c>
-      <c r="L88">
-        <v>21</v>
-      </c>
-      <c r="M88">
-        <v>23</v>
-      </c>
-      <c r="N88">
-        <v>0.91</v>
-      </c>
-      <c r="O88">
-        <v>0.08999999999999997</v>
-      </c>
-      <c r="P88" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q88">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="89" spans="10:17">
-      <c r="J89" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="K89">
-        <v>0.05314009661835749</v>
-      </c>
-      <c r="L89">
-        <v>22</v>
-      </c>
-      <c r="M89">
-        <v>26</v>
-      </c>
-      <c r="N89">
-        <v>0.85</v>
-      </c>
-      <c r="O89">
-        <v>0.15</v>
-      </c>
-      <c r="P89" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q89">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="90" spans="10:17">
-      <c r="J90" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="K90">
-        <v>0.05128205128205128</v>
-      </c>
-      <c r="L90">
-        <v>28</v>
-      </c>
-      <c r="M90">
-        <v>29</v>
-      </c>
-      <c r="N90">
-        <v>0.97</v>
-      </c>
-      <c r="O90">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="P90" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q90">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="91" spans="10:17">
-      <c r="J91" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="K91">
-        <v>0.04807692307692308</v>
+        <v>0.02938741721854305</v>
       </c>
       <c r="L91">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="M91">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="N91">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="O91">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="P91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q91">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="92" spans="10:17">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17">
       <c r="J92" s="1" t="s">
         <v>175</v>
       </c>
       <c r="K92">
-        <v>0.03488372093023256</v>
+        <v>0.02938706968933669</v>
       </c>
       <c r="L92">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="M92">
+        <v>82</v>
+      </c>
+      <c r="N92">
+        <v>0.85</v>
+      </c>
+      <c r="O92">
+        <v>0.15</v>
+      </c>
+      <c r="P92" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q92">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17">
+      <c r="J93" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K93">
+        <v>0.02930980144973212</v>
+      </c>
+      <c r="L93">
+        <v>93</v>
+      </c>
+      <c r="M93">
+        <v>121</v>
+      </c>
+      <c r="N93">
+        <v>0.77</v>
+      </c>
+      <c r="O93">
+        <v>0.23</v>
+      </c>
+      <c r="P93" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q93">
+        <v>3080</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17">
+      <c r="J94" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="K94">
+        <v>0.02812939521800281</v>
+      </c>
+      <c r="L94">
+        <v>20</v>
+      </c>
+      <c r="M94">
+        <v>29</v>
+      </c>
+      <c r="N94">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="O94">
+        <v>0.3100000000000001</v>
+      </c>
+      <c r="P94" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q94">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17">
+      <c r="J95" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K95">
+        <v>0.02774566473988439</v>
+      </c>
+      <c r="L95">
         <v>24</v>
       </c>
-      <c r="N92">
-        <v>0.88</v>
-      </c>
-      <c r="O92">
-        <v>0.12</v>
-      </c>
-      <c r="P92" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q92">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="93" spans="10:17">
-      <c r="J93" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="K93">
-        <v>0.03271028037383177</v>
-      </c>
-      <c r="L93">
-        <v>21</v>
-      </c>
-      <c r="M93">
-        <v>29</v>
-      </c>
-      <c r="N93">
-        <v>0.72</v>
-      </c>
-      <c r="O93">
-        <v>0.28</v>
-      </c>
-      <c r="P93" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q93">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="94" spans="10:17">
-      <c r="J94" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K94">
-        <v>0.03075709779179811</v>
-      </c>
-      <c r="L94">
-        <v>39</v>
-      </c>
-      <c r="M94">
-        <v>60</v>
-      </c>
-      <c r="N94">
+      <c r="M95">
+        <v>37</v>
+      </c>
+      <c r="N95">
         <v>0.65</v>
       </c>
-      <c r="O94">
+      <c r="O95">
         <v>0.35</v>
       </c>
-      <c r="P94" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q94">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="95" spans="10:17">
-      <c r="J95" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K95">
-        <v>0.0272108843537415</v>
-      </c>
-      <c r="L95">
-        <v>72</v>
-      </c>
-      <c r="M95">
-        <v>99</v>
-      </c>
-      <c r="N95">
-        <v>0.73</v>
-      </c>
-      <c r="O95">
-        <v>0.27</v>
-      </c>
       <c r="P95" t="b">
         <v>1</v>
       </c>
       <c r="Q95">
-        <v>2574</v>
-      </c>
-    </row>
-    <row r="96" spans="10:17">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17">
       <c r="J96" s="1" t="s">
         <v>177</v>
       </c>
       <c r="K96">
-        <v>0.02587800369685767</v>
+        <v>0.02598652550529355</v>
       </c>
       <c r="L96">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="M96">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="N96">
-        <v>0.82</v>
+        <v>0.96</v>
       </c>
       <c r="O96">
-        <v>0.18</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P96" t="b">
         <v>1</v>
       </c>
       <c r="Q96">
-        <v>527</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="97" spans="10:17">
@@ -5290,493 +5335,441 @@
         <v>178</v>
       </c>
       <c r="K97">
-        <v>0.02514668901927913</v>
+        <v>0.0237467018469657</v>
       </c>
       <c r="L97">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="M97">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="N97">
-        <v>0.88</v>
+        <v>0.6</v>
       </c>
       <c r="O97">
-        <v>0.12</v>
+        <v>0.4</v>
       </c>
       <c r="P97" t="b">
         <v>1</v>
       </c>
       <c r="Q97">
-        <v>2326</v>
+        <v>740</v>
       </c>
     </row>
     <row r="98" spans="10:17">
       <c r="J98" s="1" t="s">
-        <v>179</v>
+        <v>84</v>
       </c>
       <c r="K98">
-        <v>0.02125</v>
+        <v>0.02279924002533249</v>
       </c>
       <c r="L98">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="M98">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="N98">
-        <v>0.9399999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="O98">
-        <v>0.06000000000000005</v>
+        <v>0.29</v>
       </c>
       <c r="P98" t="b">
         <v>1</v>
       </c>
       <c r="Q98">
-        <v>783</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="99" spans="10:17">
       <c r="J99" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K99">
-        <v>0.02108768035516093</v>
+        <v>0.02269170579029734</v>
       </c>
       <c r="L99">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="M99">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="N99">
-        <v>1</v>
+        <v>0.72</v>
       </c>
       <c r="O99">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="P99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q99">
-        <v>882</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="100" spans="10:17">
       <c r="J100" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K100">
-        <v>0.02084649399873658</v>
+        <v>0.02137232845894263</v>
       </c>
       <c r="L100">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="M100">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="N100">
-        <v>0.75</v>
+        <v>0.79</v>
       </c>
       <c r="O100">
-        <v>0.25</v>
+        <v>0.21</v>
       </c>
       <c r="P100" t="b">
         <v>1</v>
       </c>
       <c r="Q100">
-        <v>1550</v>
+        <v>870</v>
       </c>
     </row>
     <row r="101" spans="10:17">
       <c r="J101" s="1" t="s">
-        <v>78</v>
+        <v>181</v>
       </c>
       <c r="K101">
-        <v>0.01983471074380165</v>
+        <v>0.0200445434298441</v>
       </c>
       <c r="L101">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="M101">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="N101">
-        <v>0.66</v>
+        <v>0.86</v>
       </c>
       <c r="O101">
-        <v>0.34</v>
+        <v>0.14</v>
       </c>
       <c r="P101" t="b">
         <v>1</v>
       </c>
       <c r="Q101">
-        <v>2372</v>
+        <v>880</v>
       </c>
     </row>
     <row r="102" spans="10:17">
       <c r="J102" s="1" t="s">
-        <v>182</v>
+        <v>77</v>
       </c>
       <c r="K102">
-        <v>0.01928640308582449</v>
+        <v>0.01989700374531835</v>
       </c>
       <c r="L102">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="M102">
-        <v>23</v>
+        <v>141</v>
       </c>
       <c r="N102">
-        <v>0.87</v>
+        <v>0.6</v>
       </c>
       <c r="O102">
-        <v>0.13</v>
+        <v>0.4</v>
       </c>
       <c r="P102" t="b">
         <v>1</v>
       </c>
       <c r="Q102">
-        <v>1017</v>
+        <v>4187</v>
       </c>
     </row>
     <row r="103" spans="10:17">
       <c r="J103" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K103">
-        <v>0.01919446192573946</v>
+        <v>0.0194450070893255</v>
       </c>
       <c r="L103">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="M103">
-        <v>84</v>
+        <v>155</v>
       </c>
       <c r="N103">
-        <v>0.73</v>
+        <v>0.62</v>
       </c>
       <c r="O103">
-        <v>0.27</v>
+        <v>0.38</v>
       </c>
       <c r="P103" t="b">
         <v>1</v>
       </c>
       <c r="Q103">
-        <v>3117</v>
+        <v>4841</v>
       </c>
     </row>
     <row r="104" spans="10:17">
       <c r="J104" s="1" t="s">
-        <v>71</v>
+        <v>182</v>
       </c>
       <c r="K104">
-        <v>0.01847575057736721</v>
+        <v>0.01631116687578419</v>
       </c>
       <c r="L104">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M104">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="N104">
-        <v>0.5</v>
+        <v>0.76</v>
       </c>
       <c r="O104">
-        <v>0.5</v>
+        <v>0.24</v>
       </c>
       <c r="P104" t="b">
         <v>1</v>
       </c>
       <c r="Q104">
-        <v>850</v>
+        <v>784</v>
       </c>
     </row>
     <row r="105" spans="10:17">
       <c r="J105" s="1" t="s">
-        <v>183</v>
+        <v>81</v>
       </c>
       <c r="K105">
-        <v>0.01847575057736721</v>
+        <v>0.01547805642633229</v>
       </c>
       <c r="L105">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="M105">
-        <v>28</v>
+        <v>140</v>
       </c>
       <c r="N105">
-        <v>0.57</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O105">
-        <v>0.43</v>
+        <v>0.4399999999999999</v>
       </c>
       <c r="P105" t="b">
         <v>1</v>
       </c>
       <c r="Q105">
-        <v>850</v>
+        <v>5025</v>
       </c>
     </row>
     <row r="106" spans="10:17">
       <c r="J106" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K106">
-        <v>0.01821862348178137</v>
+        <v>0.01452513966480447</v>
       </c>
       <c r="L106">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M106">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N106">
-        <v>0.95</v>
+        <v>0.57</v>
       </c>
       <c r="O106">
-        <v>0.05000000000000004</v>
+        <v>0.43</v>
       </c>
       <c r="P106" t="b">
         <v>1</v>
       </c>
       <c r="Q106">
-        <v>970</v>
+        <v>882</v>
       </c>
     </row>
     <row r="107" spans="10:17">
       <c r="J107" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K107">
-        <v>0.01577350859453994</v>
+        <v>0.01449953227315248</v>
       </c>
       <c r="L107">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="M107">
-        <v>129</v>
+        <v>51</v>
       </c>
       <c r="N107">
-        <v>0.6</v>
+        <v>0.61</v>
       </c>
       <c r="O107">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="P107" t="b">
         <v>1</v>
       </c>
       <c r="Q107">
-        <v>4867</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="108" spans="10:17">
       <c r="J108" s="1" t="s">
-        <v>185</v>
+        <v>78</v>
       </c>
       <c r="K108">
-        <v>0.01569506726457399</v>
+        <v>0.0144800351031154</v>
       </c>
       <c r="L108">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="M108">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="N108">
-        <v>0.88</v>
+        <v>0.52</v>
       </c>
       <c r="O108">
-        <v>0.12</v>
+        <v>0.48</v>
       </c>
       <c r="P108" t="b">
         <v>1</v>
       </c>
       <c r="Q108">
-        <v>878</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="109" spans="10:17">
       <c r="J109" s="1" t="s">
-        <v>81</v>
+        <v>184</v>
       </c>
       <c r="K109">
-        <v>0.01212358232303481</v>
+        <v>0.01409869083585096</v>
       </c>
       <c r="L109">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="M109">
-        <v>113</v>
+        <v>20</v>
       </c>
       <c r="N109">
-        <v>0.55</v>
+        <v>0.7</v>
       </c>
       <c r="O109">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="P109" t="b">
         <v>1</v>
       </c>
       <c r="Q109">
-        <v>5052</v>
+        <v>979</v>
       </c>
     </row>
     <row r="110" spans="10:17">
       <c r="J110" s="1" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="K110">
-        <v>0.01118881118881119</v>
+        <v>0.01197891710589363</v>
       </c>
       <c r="L110">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="M110">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="N110">
-        <v>0.5600000000000001</v>
+        <v>0.31</v>
       </c>
       <c r="O110">
-        <v>0.4399999999999999</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="P110" t="b">
         <v>1</v>
       </c>
       <c r="Q110">
-        <v>4242</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="111" spans="10:17">
       <c r="J111" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="K111">
-        <v>0.01008771929824561</v>
+        <v>0.01187824795842613</v>
       </c>
       <c r="L111">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="M111">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="N111">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="O111">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="P111" t="b">
         <v>1</v>
       </c>
       <c r="Q111">
-        <v>2257</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="112" spans="10:17">
       <c r="J112" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="K112">
-        <v>0.009328358208955223</v>
+        <v>0.008710217755443886</v>
       </c>
       <c r="L112">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M112">
-        <v>34</v>
+        <v>148</v>
       </c>
       <c r="N112">
-        <v>0.59</v>
+        <v>0.18</v>
       </c>
       <c r="O112">
-        <v>0.41</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="P112" t="b">
         <v>1</v>
       </c>
       <c r="Q112">
-        <v>2124</v>
+        <v>2959</v>
       </c>
     </row>
     <row r="113" spans="10:17">
       <c r="J113" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K113">
-        <v>0.008974358974358974</v>
+        <v>0.008144020574367767</v>
       </c>
       <c r="L113">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M113">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="N113">
-        <v>0.35</v>
+        <v>0.29</v>
       </c>
       <c r="O113">
-        <v>0.65</v>
+        <v>0.71</v>
       </c>
       <c r="P113" t="b">
         <v>1</v>
       </c>
       <c r="Q113">
-        <v>2319</v>
-      </c>
-    </row>
-    <row r="114" spans="10:17">
-      <c r="J114" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K114">
-        <v>0.006591957811470006</v>
-      </c>
-      <c r="L114">
-        <v>20</v>
-      </c>
-      <c r="M114">
-        <v>93</v>
-      </c>
-      <c r="N114">
-        <v>0.22</v>
-      </c>
-      <c r="O114">
-        <v>0.78</v>
-      </c>
-      <c r="P114" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q114">
-        <v>3014</v>
-      </c>
-    </row>
-    <row r="115" spans="10:17">
-      <c r="J115" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K115">
-        <v>0.006166982922201139</v>
-      </c>
-      <c r="L115">
-        <v>13</v>
-      </c>
-      <c r="M115">
-        <v>48</v>
-      </c>
-      <c r="N115">
-        <v>0.27</v>
-      </c>
-      <c r="O115">
-        <v>0.73</v>
-      </c>
-      <c r="P115" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q115">
-        <v>2095</v>
+        <v>2314</v>
       </c>
     </row>
   </sheetData>
